--- a/biology/Botanique/Wilhelm_Heß_(zoologiste)/Wilhelm_Heß_(zoologiste).xlsx
+++ b/biology/Botanique/Wilhelm_Heß_(zoologiste)/Wilhelm_Heß_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wilhelm_He%C3%9F_(zoologiste)</t>
+          <t>Wilhelm_Heß_(zoologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Friedrich Wilhelm Heß (également Hess, né le 3 novembre 1841 à Verden et mort le 6 juin 1918 à Hanovre) est un botaniste et zoologiste prussien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wilhelm_He%C3%9F_(zoologiste)</t>
+          <t>Wilhelm_Heß_(zoologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Heß est le fils de l'inspecteur principal des impôts Friedrich Heß (né en 1791) et de son épouse Julie, née Weßberge (1802-1888). L'ingénieur hydraulique August Heß (1827-1894) est son frère.
 William Hess étudié à l'université Georges-Auguste de Goettingen et obtient son doctorat en 1864 sous la direction de Wilhelm Moritz Keferstein à Göttingen en 1864 avec sa thèse Contributions à la connaissance des crabes décapodes de l'est de l'Australie. Hess travaille d'abord comme enseignant à Hanovre et à Northeim, avant d'accepter un poste de professeur de zoologie et de botanique à l'école polytechnique royale de Hanovre en 1874. En 1878, il reçoit le titre de professeur. De 1882 à 1890, il donne des cours de botanique et de zoologie à l'école vétérinaire et est également de 1874 à 1908 professeur assistant scientifique à temps partiel à l'école secondaire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wilhelm_He%C3%9F_(zoologiste)</t>
+          <t>Wilhelm_Heß_(zoologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Travaux (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beiträge zur Kenntnis der Dekapoden-Krebse Ost-Australiens. Dissertation. Göttingen 1864
 Beiträge zur Kenntnis der Dekapoden-Krebse Ost-Australiens. In: Archiv für Naturgeschichte, 31, 1865, p. 127–173 (Digitalisat)
